--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H2">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N2">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q2">
-        <v>672.1985359013892</v>
+        <v>805.6055945906772</v>
       </c>
       <c r="R2">
-        <v>672.1985359013892</v>
+        <v>7250.450351316095</v>
       </c>
       <c r="S2">
-        <v>0.1256524306676581</v>
+        <v>0.12647530328364</v>
       </c>
       <c r="T2">
-        <v>0.1256524306676581</v>
+        <v>0.12647530328364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H3">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N3">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q3">
-        <v>2.817035264439239</v>
+        <v>3.380977491033333</v>
       </c>
       <c r="R3">
-        <v>2.817035264439239</v>
+        <v>30.4287974193</v>
       </c>
       <c r="S3">
-        <v>0.0005265815221966296</v>
+        <v>0.0005307934260199207</v>
       </c>
       <c r="T3">
-        <v>0.0005265815221966296</v>
+        <v>0.0005307934260199211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H4">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N4">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q4">
-        <v>6.600572000288594</v>
+        <v>8.780369429051111</v>
       </c>
       <c r="R4">
-        <v>6.600572000288594</v>
+        <v>79.02332486146</v>
       </c>
       <c r="S4">
-        <v>0.001233828804046691</v>
+        <v>0.001378465956465803</v>
       </c>
       <c r="T4">
-        <v>0.001233828804046691</v>
+        <v>0.001378465956465803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H5">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N5">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q5">
-        <v>2.031093799615939</v>
+        <v>5.04663701192</v>
       </c>
       <c r="R5">
-        <v>2.031093799615939</v>
+        <v>45.41973310728</v>
       </c>
       <c r="S5">
-        <v>0.0003796674036094468</v>
+        <v>0.0007922920979332669</v>
       </c>
       <c r="T5">
-        <v>0.0003796674036094468</v>
+        <v>0.0007922920979332671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H6">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J6">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N6">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q6">
-        <v>2690.330003976392</v>
+        <v>2915.106478919771</v>
       </c>
       <c r="R6">
-        <v>2690.330003976392</v>
+        <v>26235.95831027794</v>
       </c>
       <c r="S6">
-        <v>0.5028968172988627</v>
+        <v>0.4576544384759521</v>
       </c>
       <c r="T6">
-        <v>0.5028968172988627</v>
+        <v>0.4576544384759521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H7">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J7">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N7">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q7">
-        <v>11.27457750858929</v>
+        <v>12.23416204576</v>
       </c>
       <c r="R7">
-        <v>11.27457750858929</v>
+        <v>110.10745841184</v>
       </c>
       <c r="S7">
-        <v>0.002107529238821458</v>
+        <v>0.001920690925619596</v>
       </c>
       <c r="T7">
-        <v>0.002107529238821458</v>
+        <v>0.001920690925619597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H8">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J8">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N8">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q8">
-        <v>26.41736919579949</v>
+        <v>31.77201347880533</v>
       </c>
       <c r="R8">
-        <v>26.41736919579949</v>
+        <v>285.948121309248</v>
       </c>
       <c r="S8">
-        <v>0.004938134307070367</v>
+        <v>0.004988017793875315</v>
       </c>
       <c r="T8">
-        <v>0.004938134307070367</v>
+        <v>0.004988017793875316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H9">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J9">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N9">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q9">
-        <v>8.12901590550144</v>
+        <v>18.261397821696</v>
       </c>
       <c r="R9">
-        <v>8.12901590550144</v>
+        <v>164.352580395264</v>
       </c>
       <c r="S9">
-        <v>0.001519537090470772</v>
+        <v>0.002866931217199037</v>
       </c>
       <c r="T9">
-        <v>0.001519537090470772</v>
+        <v>0.002866931217199037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H10">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N10">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q10">
-        <v>1056.423141326953</v>
+        <v>1415.967340565492</v>
       </c>
       <c r="R10">
-        <v>1056.423141326953</v>
+        <v>12743.70606508943</v>
       </c>
       <c r="S10">
-        <v>0.1974745978035983</v>
+        <v>0.2222984796037093</v>
       </c>
       <c r="T10">
-        <v>0.1974745978035983</v>
+        <v>0.2222984796037093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H11">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N11">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q11">
-        <v>4.427235532872801</v>
+        <v>5.942552706480001</v>
       </c>
       <c r="R11">
-        <v>4.427235532872801</v>
+        <v>53.48297435832001</v>
       </c>
       <c r="S11">
-        <v>0.0008275723259315452</v>
+        <v>0.0009329455516169168</v>
       </c>
       <c r="T11">
-        <v>0.0008275723259315452</v>
+        <v>0.000932945551616917</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H12">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N12">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q12">
-        <v>10.37341891521545</v>
+        <v>15.432758204656</v>
       </c>
       <c r="R12">
-        <v>10.37341891521545</v>
+        <v>138.894823841904</v>
       </c>
       <c r="S12">
-        <v>0.001939077863778472</v>
+        <v>0.002422851563523065</v>
       </c>
       <c r="T12">
-        <v>0.001939077863778472</v>
+        <v>0.002422851563523066</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H13">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N13">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q13">
-        <v>3.19205469444036</v>
+        <v>8.870188137408</v>
       </c>
       <c r="R13">
-        <v>3.19205469444036</v>
+        <v>79.83169323667201</v>
       </c>
       <c r="S13">
-        <v>0.0005966829883714284</v>
+        <v>0.001392566961295287</v>
       </c>
       <c r="T13">
-        <v>0.0005966829883714284</v>
+        <v>0.001392566961295287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H14">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N14">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O14">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P14">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q14">
-        <v>841.1261146739664</v>
+        <v>1099.775220634842</v>
       </c>
       <c r="R14">
-        <v>841.1261146739664</v>
+        <v>9897.976985713576</v>
       </c>
       <c r="S14">
-        <v>0.1572296504113953</v>
+        <v>0.1726581909405639</v>
       </c>
       <c r="T14">
-        <v>0.1572296504113953</v>
+        <v>0.1726581909405639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H15">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N15">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O15">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P15">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q15">
-        <v>3.524973352850217</v>
+        <v>4.6155529345</v>
       </c>
       <c r="R15">
-        <v>3.524973352850217</v>
+        <v>41.5399764105</v>
       </c>
       <c r="S15">
-        <v>0.0006589146601314975</v>
+        <v>0.0007246144529435438</v>
       </c>
       <c r="T15">
-        <v>0.0006589146601314975</v>
+        <v>0.0007246144529435442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H16">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N16">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O16">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P16">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q16">
-        <v>8.25933587282162</v>
+        <v>11.98655122423333</v>
       </c>
       <c r="R16">
-        <v>8.25933587282162</v>
+        <v>107.8789610181</v>
       </c>
       <c r="S16">
-        <v>0.001543897483693515</v>
+        <v>0.001881817494303857</v>
       </c>
       <c r="T16">
-        <v>0.001543897483693515</v>
+        <v>0.001881817494303857</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H17">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N17">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O17">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P17">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q17">
-        <v>2.541520019704356</v>
+        <v>6.8894337012</v>
       </c>
       <c r="R17">
-        <v>2.541520019704356</v>
+        <v>62.0049033108</v>
       </c>
       <c r="S17">
-        <v>0.000475080130363769</v>
+        <v>0.001081600255338996</v>
       </c>
       <c r="T17">
-        <v>0.000475080130363769</v>
+        <v>0.001081600255338996</v>
       </c>
     </row>
   </sheetData>
